--- a/media/system_files/salary_template.xlsx
+++ b/media/system_files/salary_template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github_Desktop\ERP\static\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github_Desktop\ERP\media\system_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76356920-61CC-4D07-AAFB-402D61BCDDA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7AA259-9DC3-4978-9F90-3DCA84D62002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8FBFC610-2730-4E3D-B911-8E69395CDF06}"/>
   </bookViews>
@@ -937,15 +937,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07C52F4-C175-4EFA-863D-63D320E1301D}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.33203125" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
     <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.21875" customWidth="1"/>
     <col min="6" max="6" width="14.5546875" customWidth="1"/>
